--- a/coordinates_sample/507牂牁郡/507牂牁郡.xlsx
+++ b/coordinates_sample/507牂牁郡/507牂牁郡.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="507牂牁郡" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="507(CHGIS)" sheetId="1" r:id="rId1"/>
+    <sheet name="507(PUBLICATION)" sheetId="2" r:id="rId2"/>
+    <sheet name="507" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="66">
   <si>
     <t>county_han</t>
   </si>
@@ -178,6 +179,70 @@
   </si>
   <si>
     <t>50717</t>
+  </si>
+  <si>
+    <t>Y_COOR</t>
+  </si>
+  <si>
+    <t>X_COOR</t>
+  </si>
+  <si>
+    <t>附言</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>坐标来源</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉书地理志汇释</t>
+    <rPh sb="0" eb="1">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'li'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_COOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_COOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHGIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,13 +562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -561,7 +626,7 @@
         <v>99034</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -590,7 +655,7 @@
         <v>45530</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -619,7 +684,7 @@
         <v>99350</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -648,7 +713,7 @@
         <v>80284</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -677,7 +742,7 @@
         <v>99336</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -706,7 +771,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -735,7 +800,7 @@
         <v>99041</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -764,7 +829,7 @@
         <v>99004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -793,7 +858,7 @@
         <v>80627</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -822,7 +887,7 @@
         <v>80097</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -851,7 +916,7 @@
         <v>99341</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -888,82 +953,634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>105.4220023</v>
+      </c>
+      <c r="D2">
+        <v>27.254254499999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>102.8797902</v>
+      </c>
+      <c r="D3">
+        <v>24.2428174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4">
+        <v>103.49885519999999</v>
+      </c>
+      <c r="D4">
+        <v>24.512762299999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5">
+        <v>102.55677559999999</v>
+      </c>
+      <c r="D5">
+        <v>23.065966800000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6">
+        <v>103.4004158</v>
+      </c>
+      <c r="D6">
+        <v>23.1012272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>105.4220023</v>
+      </c>
+      <c r="D2">
+        <v>27.254254499999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>102.8797902</v>
+      </c>
+      <c r="D3">
+        <v>24.2428174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>103.49885519999999</v>
+      </c>
+      <c r="D4">
+        <v>24.512762299999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>102.55677559999999</v>
+      </c>
+      <c r="D5">
+        <v>23.065966800000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>103.4004158</v>
+      </c>
+      <c r="D6">
+        <v>23.1012272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>107.75547</v>
+      </c>
+      <c r="D7">
+        <v>26.801549999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>103.75346</v>
+      </c>
+      <c r="D8">
+        <v>23.755220000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>106.80656999999999</v>
+      </c>
+      <c r="D9">
+        <v>27.730530000000002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>104.30343999999999</v>
+      </c>
+      <c r="D10">
+        <v>24.883089999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>105.62939</v>
+      </c>
+      <c r="D11">
+        <v>25.598680000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>104.24997</v>
+      </c>
+      <c r="D12">
+        <v>23.809850000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>107.54277</v>
+      </c>
+      <c r="D13">
+        <v>25.829529999999998</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>105.38912000000001</v>
+      </c>
+      <c r="D14">
+        <v>25.871490000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>103.10836999999999</v>
+      </c>
+      <c r="D15">
+        <v>24.58013</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>104.23555</v>
+      </c>
+      <c r="D16">
+        <v>23.37613</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>104.53447</v>
+      </c>
+      <c r="D17">
+        <v>25.530639999999998</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>105.062</v>
+      </c>
+      <c r="D18">
+        <v>24.052820000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
